--- a/Державина 77_77_1_77_2/ProjectInfo.xlsx
+++ b/Державина 77_77_1_77_2/ProjectInfo.xlsx
@@ -1170,13 +1170,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1513,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1857,12 +1857,12 @@
         <v>12</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>$B$13&amp;"."&amp;$B$11&amp;"-ТХ2"</f>
-        <v>12-2023-Н/22-ЛГ.23-ТХ2</v>
+        <f>$B$13&amp;".ПЗ"</f>
+        <v>12-2023-Н/22-ЛГ.ПЗ</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>12-2023-Н/22-ЛГ.23-ТХ2.С</v>
+        <v>12-2023-Н/22-ЛГ.ПЗ.С</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>70</v>
@@ -1907,12 +1907,12 @@
         <v>12</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>$B$13&amp;"."&amp;$B$11&amp;"-ТХ3"</f>
-        <v>12-2023-Н/22-ЛГ.23-ТХ3</v>
+        <f>$B$13&amp;".ПК"</f>
+        <v>12-2023-Н/22-ЛГ.ПК</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>12-2023-Н/22-ЛГ.23-ТХ3.С</v>
+        <v>12-2023-Н/22-ЛГ.ПК.С</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>72</v>
@@ -1965,12 +1965,12 @@
         <v>12</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>$B$13&amp;"."&amp;$B$11&amp;"-ТХ4"</f>
-        <v>12-2023-Н/22-ЛГ.23-ТХ4</v>
+        <f>$B$13&amp;".ЛС"</f>
+        <v>12-2023-Н/22-ЛГ.ЛС</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>12-2023-Н/22-ЛГ.23-ТХ4.С</v>
+        <v>12-2023-Н/22-ЛГ.ЛС.С</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>71</v>
@@ -2868,32 +2868,32 @@
       <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="33" t="str">
+      <c r="F31" s="31" t="str">
         <f>IF(D31=1,E31,IF(D32=1,E32,IF(D33=1,E33,IF(D34=1,E34,IF(D35=1,E36,IF(D36=1,E35,""))))))</f>
         <v>ГИП</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="str">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="str">
         <f t="shared" ref="H31:H36" si="10">IF($E$33=F31,$B$17,IF($E$34=F31,$B$9,IF($E$32=F31,$B$15,IF($E$36=F31,$B$32,IF($E$31=F31,$B$12,IF(E35=F31,"",""))))))</f>
         <v/>
       </c>
-      <c r="I31" s="33"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="24">
         <v>1</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="33" t="str">
+      <c r="L31" s="31" t="str">
         <f>IF(J31=1,K31,IF(J32=1,K32,IF(J33=1,K33,IF(J34=1,K34,IF(J35=1,K35,IF(J36=1,K36,""))))))</f>
         <v>ГИП</v>
       </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33" t="str">
+      <c r="M31" s="31"/>
+      <c r="N31" s="31" t="str">
         <f t="shared" ref="N31:N35" si="11">IF($E$33=L31,$B$17,IF($E$34=L31,$B$9,IF($E$32=L31,$B$15,IF($E$36=L31,$B$32,IF($E$31=L31,$B$12,IF(K35=L31,"",""))))))</f>
         <v/>
       </c>
-      <c r="O31" s="33"/>
+      <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -2908,32 +2908,32 @@
       <c r="E32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="33" t="str">
+      <c r="F32" s="31" t="str">
         <f>IF(D31=2,E31,IF(D32=2,E32,IF(D33=2,E33,IF(D34=2,E34,IF(D35=2,E36,IF(D36=2,E35,""))))))</f>
         <v>Н. контр.</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33" t="str">
+      <c r="G32" s="31"/>
+      <c r="H32" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="24">
         <v>2</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="33" t="str">
+      <c r="L32" s="31" t="str">
         <f>IF(J31=2,K31,IF(J32=2,K32,IF(J33=2,K33,IF(J34=2,K34,IF(J35=2,K35,IF(J36=2,K36,""))))))</f>
         <v>Н. контр.</v>
       </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33" t="str">
+      <c r="M32" s="31"/>
+      <c r="N32" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -2948,32 +2948,32 @@
       <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="33" t="str">
+      <c r="F33" s="31" t="str">
         <f>IF(D31=3,E31,IF(D32=3,E32,IF(D33=3,E33,IF(D34=3,E34,IF(D35=3,E36,IF(D36=3,E35,""))))))</f>
         <v/>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="str">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I33" s="33"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="24">
         <v>4</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="33" t="str">
+      <c r="L33" s="31" t="str">
         <f>IF(J31=3,K31,IF(J32=3,K32,IF(J33=3,K33,IF(J34=3,K34,IF(J35=3,K35,IF(J36=3,K36,""))))))</f>
         <v/>
       </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33" t="str">
+      <c r="M33" s="31"/>
+      <c r="N33" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O33" s="33"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -2988,32 +2988,32 @@
       <c r="E34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="33" t="str">
+      <c r="F34" s="31" t="str">
         <f>IF(D31=4,E31,IF(D32=4,E32,IF(D33=4,E33,IF(D34=4,E34,IF(D35=4,E36,IF(D36=4,E35,""))))))</f>
         <v/>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="str">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="24">
         <v>5</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="33" t="str">
+      <c r="L34" s="31" t="str">
         <f>IF(J31=4,K31,IF(J32=4,K32,IF(J33=4,K33,IF(J34=4,K34,IF(J35=4,K36,IF(J36=4,K35,""))))))</f>
         <v>Проверил</v>
       </c>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33" t="str">
+      <c r="M34" s="31"/>
+      <c r="N34" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
@@ -3035,31 +3035,31 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="F35" s="33" t="str">
+      <c r="F35" s="31" t="str">
         <f>IF(D31=5,E31,IF(D32=5,E32,IF(D33=5,E33,IF(D34=5,E34,IF(D35=5,E36,IF(D36=5,E35,""))))))</f>
         <v>Проверил</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33" t="str">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I35" s="33"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="24" t="str">
         <f>D35</f>
         <v>-</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="33" t="str">
+      <c r="L35" s="31" t="str">
         <f>IF(J31=5,K31,IF(J32=5,K32,IF(J33=5,K33,IF(J34=5,K34,IF(J35=5,K35,IF(J36=5,K36,""))))))</f>
         <v>Разработал</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33" t="str">
+      <c r="M35" s="31"/>
+      <c r="N35" s="31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O35" s="33"/>
+      <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
@@ -3088,7 +3088,7 @@
       <c r="O36" s="32"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="24">
@@ -3110,7 +3110,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+      <c r="A39" s="33"/>
       <c r="D39" s="24">
         <v>2</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
+      <c r="A40" s="33"/>
       <c r="C40" s="15"/>
       <c r="D40" s="24" t="s">
         <v>12</v>
@@ -4599,18 +4599,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
@@ -4624,6 +4612,18 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
